--- a/maps/contestacaoSaldoRecargaUpdated/exportedScenarios/Contestação Saldo Recarga Scenarios.xlsx
+++ b/maps/contestacaoSaldoRecargaUpdated/exportedScenarios/Contestação Saldo Recarga Scenarios.xlsx
@@ -587,7 +587,7 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Intenção Consultar Saldo (Falha Serv. Recarga/Saldo acolhimento)
 Quer algo mais</t>
   </si>
@@ -602,7 +602,7 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Intenção Consultar Saldo (Falha Serv. Recarga/Saldo acolhimento)
 Não quer mais nada</t>
   </si>
@@ -617,7 +617,7 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Intenção não é Consultar Saldo (Falha Serv. Recarga/Saldo acolhimento)
 Cliente Pré Top
 Quer algo mais</t>
@@ -633,7 +633,7 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Intenção não é Consultar Saldo (Falha Serv. Recarga/Saldo acolhimento)
 Cliente Pré Top
 Não quer mais nada</t>
@@ -649,7 +649,7 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Intenção não é Consultar Saldo (Falha Serv. Recarga/Saldo acolhimento)
 Não é Pré Top
 Quer algo mais</t>
@@ -666,7 +666,7 @@
   </si>
   <si>
     <t>Intenção Consultar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Intenção não é Consultar Saldo (Falha Serv. Recarga/Saldo acolhimento)
 Não é Pré Top
 Não quer mais nada</t>
@@ -771,7 +771,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo válido
 Saldo &gt; zero
@@ -783,7 +783,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo válido
 Saldo &gt; zero
@@ -795,7 +795,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo válido
 Saldo &gt; zero
@@ -807,7 +807,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo válido
 Saldo &gt; zero
@@ -819,7 +819,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo fora da validade
 Saldo &gt; zero (expirado)
@@ -831,7 +831,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo fora da validade
 Saldo &gt; zero (expirado)
@@ -843,7 +843,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo fora da validade
 Saldo &gt; zero (expirado)
@@ -855,7 +855,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Sucesso na consulta de saldo
 Saldo fora da validade
 Saldo &gt; zero (expirado)
@@ -867,7 +867,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Falha na consulta de saldo
 Quer algo mais</t>
   </si>
@@ -883,7 +883,7 @@
   </si>
   <si>
     <t>Intenção Contestar Saldo
-Sem informação de saldo
+Sem informação de saldo vindo do acolhimento
 Falha na consulta de saldo
 Não quer mais nada</t>
   </si>
